--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H2">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I2">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J2">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>2050.205767272143</v>
+        <v>33.40998280955775</v>
       </c>
       <c r="R2">
-        <v>12301.23460363285</v>
+        <v>133.639931238231</v>
       </c>
       <c r="S2">
-        <v>0.1596621096386701</v>
+        <v>0.003432564935585652</v>
       </c>
       <c r="T2">
-        <v>0.1380147269841764</v>
+        <v>0.00189729715541528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H3">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I3">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J3">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>1479.495373036949</v>
+        <v>19.686434391444</v>
       </c>
       <c r="R3">
-        <v>13315.45835733254</v>
+        <v>118.118606348664</v>
       </c>
       <c r="S3">
-        <v>0.1152173875571656</v>
+        <v>0.002022597999644784</v>
       </c>
       <c r="T3">
-        <v>0.1493938949277249</v>
+        <v>0.001676939622390545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H4">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I4">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J4">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>1053.048851968904</v>
+        <v>12.8651593540955</v>
       </c>
       <c r="R4">
-        <v>9477.439667720135</v>
+        <v>77.19095612457301</v>
       </c>
       <c r="S4">
-        <v>0.08200737893818301</v>
+        <v>0.001321775444821743</v>
       </c>
       <c r="T4">
-        <v>0.1063329243280269</v>
+        <v>0.001095886387563788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H5">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I5">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J5">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>1742.89396035971</v>
+        <v>28.51739357091075</v>
       </c>
       <c r="R5">
-        <v>10457.36376215826</v>
+        <v>114.069574283643</v>
       </c>
       <c r="S5">
-        <v>0.135729852598054</v>
+        <v>0.002929896904879601</v>
       </c>
       <c r="T5">
-        <v>0.1173272643855</v>
+        <v>0.001619455179320494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H6">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I6">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J6">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>1516.480861345781</v>
+        <v>9.921141483039499</v>
       </c>
       <c r="R6">
-        <v>13648.32775211203</v>
+        <v>59.526848898237</v>
       </c>
       <c r="S6">
-        <v>0.1180976745916039</v>
+        <v>0.001019304995449544</v>
       </c>
       <c r="T6">
-        <v>0.1531285508482219</v>
+        <v>0.0008451075965021968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H7">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I7">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J7">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>992.0542146660756</v>
+        <v>14.298906401197</v>
       </c>
       <c r="R7">
-        <v>8928.487931994679</v>
+        <v>85.79343840718199</v>
       </c>
       <c r="S7">
-        <v>0.07725735207557571</v>
+        <v>0.001469079616405219</v>
       </c>
       <c r="T7">
-        <v>0.1001739145721066</v>
+        <v>0.001218016539929769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H8">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I8">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J8">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>893.5819179500742</v>
+        <v>2510.86174352973</v>
       </c>
       <c r="R8">
-        <v>3574.327671800297</v>
+        <v>15065.17046117838</v>
       </c>
       <c r="S8">
-        <v>0.06958870979311799</v>
+        <v>0.2579676867261965</v>
       </c>
       <c r="T8">
-        <v>0.04010246724583388</v>
+        <v>0.2138814708822832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H9">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I9">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J9">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>644.8378665891878</v>
+        <v>1479.495373036949</v>
       </c>
       <c r="R9">
-        <v>3869.027199535127</v>
+        <v>13315.45835733254</v>
       </c>
       <c r="S9">
-        <v>0.05021748343412144</v>
+        <v>0.1520043864971707</v>
       </c>
       <c r="T9">
-        <v>0.04340887316143821</v>
+        <v>0.1890406634479803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H10">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I10">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J10">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>458.9712056509844</v>
+        <v>966.855823624401</v>
       </c>
       <c r="R10">
-        <v>2753.827233905907</v>
+        <v>8701.702412619608</v>
       </c>
       <c r="S10">
-        <v>0.0357429054816979</v>
+        <v>0.099335441651005</v>
       </c>
       <c r="T10">
-        <v>0.030896794191444</v>
+        <v>0.1235387887569524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H11">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I11">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J11">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>759.6401067362232</v>
+        <v>2143.168793307388</v>
       </c>
       <c r="R11">
-        <v>3038.560426944893</v>
+        <v>12859.01275984433</v>
       </c>
       <c r="S11">
-        <v>0.05915783866368892</v>
+        <v>0.2201906565735743</v>
       </c>
       <c r="T11">
-        <v>0.03409138198420124</v>
+        <v>0.1825604675537424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H12">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I12">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J12">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>660.9579868751139</v>
+        <v>745.6039335280168</v>
       </c>
       <c r="R12">
-        <v>3965.747921250683</v>
+        <v>6710.435401752152</v>
       </c>
       <c r="S12">
-        <v>0.05147285616478377</v>
+        <v>0.07660386815077454</v>
       </c>
       <c r="T12">
-        <v>0.04449403936071895</v>
+        <v>0.09526860633178875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H13">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I13">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J13">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>432.3867008877142</v>
+        <v>1074.606271476652</v>
       </c>
       <c r="R13">
-        <v>2594.320205326285</v>
+        <v>9671.456443289871</v>
       </c>
       <c r="S13">
-        <v>0.03367260688925443</v>
+        <v>0.110405797813699</v>
       </c>
       <c r="T13">
-        <v>0.02910719178885488</v>
+        <v>0.1373064669261614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H14">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I14">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J14">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>36.28489941803667</v>
+        <v>185.5778260942485</v>
       </c>
       <c r="R14">
-        <v>217.70939650822</v>
+        <v>742.311304376994</v>
       </c>
       <c r="S14">
-        <v>0.002825727876484745</v>
+        <v>0.01906639528384006</v>
       </c>
       <c r="T14">
-        <v>0.002442608720924496</v>
+        <v>0.01053865497518434</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H15">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I15">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J15">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>26.18436727525333</v>
+        <v>109.349523426456</v>
       </c>
       <c r="R15">
-        <v>235.65930547728</v>
+        <v>656.097140558736</v>
       </c>
       <c r="S15">
-        <v>0.002039137429743542</v>
+        <v>0.01123464630246014</v>
       </c>
       <c r="T15">
-        <v>0.002643999220787331</v>
+        <v>0.009314665361800785</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1408,19 +1408,19 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H16">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I16">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J16">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>18.63704233298</v>
+        <v>71.46032725901701</v>
       </c>
       <c r="R16">
-        <v>167.73338099682</v>
+        <v>428.7619635541021</v>
       </c>
       <c r="S16">
-        <v>0.001451380902253509</v>
+        <v>0.007341883862466562</v>
       </c>
       <c r="T16">
-        <v>0.001881898649227639</v>
+        <v>0.006087169053920833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H17">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I17">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J17">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>30.84604143519667</v>
+        <v>158.4016350720705</v>
       </c>
       <c r="R17">
-        <v>185.07624861118</v>
+        <v>633.606540288282</v>
       </c>
       <c r="S17">
-        <v>0.002402170615341752</v>
+        <v>0.01627429446423654</v>
       </c>
       <c r="T17">
-        <v>0.002076478398012508</v>
+        <v>0.008995364449855183</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H18">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I18">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J18">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>26.83894290109333</v>
+        <v>55.107597010473</v>
       </c>
       <c r="R18">
-        <v>241.55048610984</v>
+        <v>330.645582062838</v>
       </c>
       <c r="S18">
-        <v>0.002090113252272186</v>
+        <v>0.005661792951549209</v>
       </c>
       <c r="T18">
-        <v>0.00271009581294379</v>
+        <v>0.004694202671955491</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1594,19 +1594,19 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H19">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I19">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J19">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>17.55754859878889</v>
+        <v>79.424164345878</v>
       </c>
       <c r="R19">
-        <v>158.0179373891</v>
+        <v>476.544986075268</v>
       </c>
       <c r="S19">
-        <v>0.00136731409798732</v>
+        <v>0.00816009403913434</v>
       </c>
       <c r="T19">
-        <v>0.001772895419856366</v>
+        <v>0.006765548576168126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.145077</v>
+      </c>
+      <c r="I20">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J20">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>201.5557555</v>
+      </c>
+      <c r="N20">
+        <v>403.111511</v>
+      </c>
+      <c r="O20">
+        <v>0.2814680640969941</v>
+      </c>
+      <c r="P20">
+        <v>0.2271476997658372</v>
+      </c>
+      <c r="Q20">
+        <v>9.747034780224501</v>
+      </c>
+      <c r="R20">
+        <v>58.482208681347</v>
+      </c>
+      <c r="S20">
+        <v>0.001001417151371929</v>
+      </c>
+      <c r="T20">
+        <v>0.0008302767529543607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.145077</v>
+      </c>
+      <c r="I21">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J21">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>118.764328</v>
+      </c>
+      <c r="N21">
+        <v>356.292984</v>
+      </c>
+      <c r="O21">
+        <v>0.1658517039268592</v>
+      </c>
+      <c r="P21">
+        <v>0.2007661144618275</v>
+      </c>
+      <c r="Q21">
+        <v>5.743324137752</v>
+      </c>
+      <c r="R21">
+        <v>51.689917239768</v>
+      </c>
+      <c r="S21">
+        <v>0.0005900731275836048</v>
+      </c>
+      <c r="T21">
+        <v>0.0007338460296558983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.145077</v>
+      </c>
+      <c r="I22">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J22">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>77.61293766666667</v>
+      </c>
+      <c r="N22">
+        <v>232.838813</v>
+      </c>
+      <c r="O22">
+        <v>0.1083847159795808</v>
+      </c>
+      <c r="P22">
+        <v>0.1312014153551619</v>
+      </c>
+      <c r="Q22">
+        <v>3.753284052622334</v>
+      </c>
+      <c r="R22">
+        <v>33.779556473601</v>
+      </c>
+      <c r="S22">
+        <v>0.0003856150212875483</v>
+      </c>
+      <c r="T22">
+        <v>0.0004795711567248885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.145077</v>
+      </c>
+      <c r="I23">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J23">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.0397415</v>
+      </c>
+      <c r="N23">
+        <v>344.079483</v>
+      </c>
+      <c r="O23">
+        <v>0.2402496166265631</v>
+      </c>
+      <c r="P23">
+        <v>0.1938839774289365</v>
+      </c>
+      <c r="Q23">
+        <v>8.3196698591985</v>
+      </c>
+      <c r="R23">
+        <v>49.918019155191</v>
+      </c>
+      <c r="S23">
+        <v>0.0008547686838726515</v>
+      </c>
+      <c r="T23">
+        <v>0.0007086902460184401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.145077</v>
+      </c>
+      <c r="I24">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J24">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.85226566666666</v>
+      </c>
+      <c r="N24">
+        <v>179.556797</v>
+      </c>
+      <c r="O24">
+        <v>0.08358233833226186</v>
+      </c>
+      <c r="P24">
+        <v>0.1011777443782085</v>
+      </c>
+      <c r="Q24">
+        <v>2.894395715374333</v>
+      </c>
+      <c r="R24">
+        <v>26.049561438369</v>
+      </c>
+      <c r="S24">
+        <v>0.0002973722344885816</v>
+      </c>
+      <c r="T24">
+        <v>0.0003698277779620271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.145077</v>
+      </c>
+      <c r="I25">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J25">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.26244733333333</v>
+      </c>
+      <c r="N25">
+        <v>258.787342</v>
+      </c>
+      <c r="O25">
+        <v>0.1204635610377409</v>
+      </c>
+      <c r="P25">
+        <v>0.1458230486100285</v>
+      </c>
+      <c r="Q25">
+        <v>4.171565690592667</v>
+      </c>
+      <c r="R25">
+        <v>37.544091215334</v>
+      </c>
+      <c r="S25">
+        <v>0.0004285895685023873</v>
+      </c>
+      <c r="T25">
+        <v>0.0005330165677691342</v>
       </c>
     </row>
   </sheetData>
